--- a/output.xlsx
+++ b/output.xlsx
@@ -3,6 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+  </bookViews>
   <sheets>
     <sheet sheetId="1" name="Sheet 1" state="visible" r:id="rId4"/>
   </sheets>
@@ -10,32 +13,112 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <color rgb="FFFF6600"/>
+            <scheme val="minor"/>
+            <sz val="12"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Asset Name should contain less than 50 characters and must not be empty</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <color rgb="FFFF6600"/>
+            <scheme val="minor"/>
+            <sz val="12"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Asset Name should contain less than 50 characters and must not be empty</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <color rgb="FFFF6600"/>
+            <scheme val="minor"/>
+            <sz val="12"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Please enter Date less than 6/19/2023</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <color rgb="FFFF6600"/>
+            <scheme val="minor"/>
+            <sz val="12"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Location should not exceed 50 characters and must not be empty</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Asset Name</t>
   </si>
   <si>
-    <t>Amount</t>
-  </si>
-  <si>
-    <t>Class Of Asset</t>
+    <t>Date Put To Use (MM/DD/YYYY)</t>
   </si>
   <si>
     <t>Location</t>
+  </si>
+  <si>
+    <t>NIKHIL</t>
+  </si>
+  <si>
+    <t>PALAMPUR</t>
+  </si>
+  <si>
+    <t>kangra</t>
+  </si>
+  <si>
+    <t>nnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnn</t>
+  </si>
+  <si>
+    <t>12/5/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
       <scheme val="minor"/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <i/>
+      <color rgb="FFFF0000"/>
+      <family val="2"/>
+      <name val="Arial Black"/>
     </font>
   </fonts>
   <fills count="2">
@@ -58,12 +141,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,16 +492,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.3" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -422,36 +515,69 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B2" s="3">
+        <v>45096</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection sheet="1"/>
-  <dataValidations count="4">
-    <dataValidation type="textLength" operator="lessThan" allowBlank="1" showErrorMessage="1" errorStyle="error" errorTitle="Name Error" error="Asset Name should contain less than 50 characters" sqref="A1:A10">
+  <dataValidations count="9">
+    <dataValidation type="textLength" operator="lessThan" allowBlank="1" showErrorMessage="1" errorTitle="Name Error" error="Asset Name should contain less than 50 characters and must not be empty" sqref="A1:A2">
       <formula1>50</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showErrorMessage="1" errorStyle="error" errorTitle="Amount Error" error="Amount should be greater than or equal to zero" sqref="B1:B10">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorStyle="error" errorTitle="Asset Type Error" error="Invalid Asset Class" sqref="C1:C10">
-      <formula1>"Land, Build, Motor Vehicles"</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorStyle="error" errorTitle="Location Error" error="Location should not exceed 50 characters" sqref="D1:D10">
+    <dataValidation type="textLength" operator="lessThan" allowBlank="1" showErrorMessage="1" errorTitle="Name Error" error="Asset Name should contain less than 50 characters and must not be empty" sqref="A10">
+      <formula1>50</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" allowBlank="1" showErrorMessage="1" errorTitle="Name Error" error="Asset Name should contain less than 50 characters and must not be empty" sqref="A3:A10">
+      <formula1>50</formula1>
+    </dataValidation>
+    <dataValidation type="date" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Date" error="Please enter Date less than 6/19/2023" sqref="B1:B3">
+      <formula1>45096.77083333333</formula1>
+    </dataValidation>
+    <dataValidation type="date" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Date" error="Please enter Date less than 6/19/2023" sqref="B10">
+      <formula1>45096.77083333333</formula1>
+    </dataValidation>
+    <dataValidation type="date" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Date" error="Please enter Date less than 6/19/2023" sqref="B4:B10">
+      <formula1>45096.77083333333</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Location Error" error="Location should not exceed 50 characters and must not be empty" sqref="C1:C3">
+      <formula1>50</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Location Error" error="Location should not exceed 50 characters and must not be empty" sqref="C10">
+      <formula1>50</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" allowBlank="1" showErrorMessage="1" errorTitle="Location Error" error="Location should not exceed 50 characters and must not be empty" sqref="C4:C10">
       <formula1>50</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>